--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22480" windowHeight="9690"/>
+    <workbookView windowWidth="24930" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -46,7 +46,7 @@
     <t>TargetType</t>
   </si>
   <si>
-    <t>CD</t>
+    <t>Cd</t>
   </si>
   <si>
     <t>SpellRange</t>
@@ -91,19 +91,19 @@
     <t>HitDelay</t>
   </si>
   <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>APC</t>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>Ap</t>
+  </si>
+  <si>
+    <t>Adc</t>
+  </si>
+  <si>
+    <t>Apc</t>
   </si>
   <si>
     <t>int</t>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>bool</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>int[]</t>
   </si>
   <si>
     <t>编号</t>
@@ -335,7 +329,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,13 +339,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -503,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,12 +566,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,48 +802,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,97 +856,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1308,9 +1289,9 @@
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1469,7 +1450,7 @@
         <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>32</v>
@@ -1508,10 +1489,10 @@
         <v>32</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>32</v>
@@ -1528,94 +1509,94 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:30">
       <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:30">
@@ -1629,10 +1610,10 @@
         <v>1001</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1641,19 +1622,19 @@
         <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="K4" s="4">
         <v>1.5</v>
       </c>
       <c r="L4" s="4">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -1662,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="4">
         <v>0</v>
@@ -1677,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V4" s="4">
         <v>0</v>
@@ -1689,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA4" s="4">
         <v>20</v>
@@ -1715,10 +1696,10 @@
         <v>1002</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1727,19 +1708,19 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" s="4">
         <v>5</v>
       </c>
       <c r="L5" s="4">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -1748,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="4">
         <v>5</v>
@@ -1763,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V5" s="4">
         <v>0</v>
@@ -1775,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA5" s="4">
         <v>40</v>
@@ -1804,10 +1785,10 @@
         <v>1003</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1816,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="4">
         <v>3.5</v>
@@ -1837,10 +1818,10 @@
         <v>25</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="4">
         <v>10</v>
@@ -1852,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V6" s="4">
         <v>4000</v>
@@ -1864,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA6" s="4">
         <v>60</v>
@@ -1890,10 +1871,10 @@
         <v>2001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1902,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="K7" s="4">
         <v>1.5</v>
       </c>
       <c r="L7" s="4">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="M7" s="4">
         <v>0.9</v>
@@ -1923,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1938,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V7" s="4">
         <v>0</v>
@@ -1965,10 +1946,10 @@
         <v>2002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1977,19 +1958,19 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" s="4">
         <v>5</v>
       </c>
       <c r="L8" s="4">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="M8" s="4">
         <v>1.5</v>
@@ -1998,10 +1979,10 @@
         <v>35</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
@@ -2010,13 +1991,13 @@
         <v>1</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T8" s="4">
         <v>15000</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V8" s="4">
         <v>4000</v>
@@ -2028,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB8" s="4">
         <v>0</v>
@@ -2049,10 +2030,10 @@
         <v>2003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2061,19 +2042,19 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K9" s="4">
         <v>5</v>
       </c>
       <c r="L9" s="4">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="M9" s="4">
         <v>1.5</v>
@@ -2082,10 +2063,10 @@
         <v>35</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2097,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V9" s="4">
         <v>0</v>
@@ -2109,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA9" s="4">
         <v>0</v>
@@ -2135,10 +2116,10 @@
         <v>101</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2147,19 +2128,19 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="K10" s="4">
         <v>2</v>
       </c>
       <c r="L10" s="4">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -2168,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
@@ -2180,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V10" s="4">
         <v>0</v>
@@ -2192,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="4">
         <v>50</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610"/>
+    <workbookView windowWidth="22700" windowHeight="8200"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>Icons/skill_icon_04</t>
   </si>
   <si>
-    <t>单位</t>
+    <t>Unit</t>
   </si>
   <si>
     <t>Attack</t>
@@ -304,7 +304,7 @@
     <t>自定义技能</t>
   </si>
   <si>
-    <t>点</t>
+    <t>Position</t>
   </si>
   <si>
     <t>野怪近战[物理]</t>
@@ -1289,9 +1289,9 @@
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="8200"/>
+    <workbookView windowWidth="22700" windowHeight="6640"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>HitCheck</t>
+  </si>
+  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>类别</t>
   </si>
   <si>
+    <t>命中检查</t>
+  </si>
+  <si>
     <t>技能图标</t>
   </si>
   <si>
@@ -208,13 +214,34 @@
     <t>法攻加成</t>
   </si>
   <si>
+    <t>剑士基础连招一</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>剑士基础连招二</t>
+  </si>
+  <si>
+    <t>剑士基础连招三</t>
+  </si>
+  <si>
     <t>横剑击</t>
   </si>
   <si>
     <t>剑士的基础招式，无消耗</t>
   </si>
   <si>
-    <t>普通攻击</t>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Server</t>
   </si>
   <si>
     <t>Icons/skill_icon_04</t>
@@ -238,9 +265,6 @@
     <t>对单个目标造成物理攻击，添加流血效果</t>
   </si>
   <si>
-    <t>技能</t>
-  </si>
-  <si>
     <t>Icons/skill_icon_02</t>
   </si>
   <si>
@@ -257,9 +281,6 @@
   </si>
   <si>
     <t>Icons/skill_icon_03</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Spell</t>
@@ -947,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -966,6 +987,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1286,12 +1310,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J12" sqref="J12"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1301,29 +1325,30 @@
     <col min="5" max="5" width="34.625" style="4" customWidth="1"/>
     <col min="6" max="7" width="9.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="12" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="12.875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="31.125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="10.875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="25.25" style="4" customWidth="1"/>
-    <col min="20" max="20" width="12.75" style="4" customWidth="1"/>
-    <col min="21" max="21" width="35.75" style="4" customWidth="1"/>
-    <col min="22" max="22" width="9.625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="10.25" style="4" customWidth="1"/>
-    <col min="24" max="24" width="17.05" style="4" customWidth="1"/>
-    <col min="25" max="25" width="18.125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="9" style="4" customWidth="1"/>
-    <col min="27" max="28" width="9" style="4"/>
-    <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="4"/>
+    <col min="9" max="9" width="14.4166666666667" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="12" style="4" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9" style="4"/>
+    <col min="16" max="16" width="12.875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="31.125" style="4" customWidth="1"/>
+    <col min="18" max="19" width="10.875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="25.25" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="4" customWidth="1"/>
+    <col min="22" max="22" width="35.75" style="4" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="10.25" style="4" customWidth="1"/>
+    <col min="25" max="25" width="17.05" style="4" customWidth="1"/>
+    <col min="26" max="26" width="18.125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="9" style="4" customWidth="1"/>
+    <col min="28" max="29" width="9" style="4"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1414,542 +1439,492 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:30">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:30">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:31">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:30">
+    <row r="4" customHeight="1" spans="1:31">
       <c r="A4" s="3">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:31">
+      <c r="A5" s="3">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:31">
+      <c r="A6" s="3">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>103</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:31">
+      <c r="A7" s="3">
         <v>1001</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>1001</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="H7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="4">
         <v>1.5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M7" s="4">
         <v>3.5</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
         <v>0.85</v>
       </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA4" s="4">
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="4">
         <v>20</v>
       </c>
-      <c r="AB4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
         <v>0.8</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AE7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:30">
-      <c r="A5" s="3">
+    <row r="8" customHeight="1" spans="1:31">
+      <c r="A8" s="3">
         <v>1002</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>1002</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5</v>
-      </c>
-      <c r="L5" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>20</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>5</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:30">
-      <c r="A6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>25</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>10</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" s="4">
-        <v>4000</v>
-      </c>
-      <c r="W6" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>60</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:30">
-      <c r="A7" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>10</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:30">
-      <c r="A8" s="3">
-        <v>2002</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1961,79 +1936,87 @@
         <v>74</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="4">
+        <v>83</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
         <v>20</v>
       </c>
-      <c r="M8" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="N8" s="4">
-        <v>35</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="P8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="4">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="4">
         <v>5</v>
       </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="T8" s="4">
-        <v>15000</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V8" s="4">
-        <v>4000</v>
+      <c r="S8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="W8" s="4">
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>94</v>
+        <v>0.85</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="AB8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
       <c r="AD8" s="4">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:30">
+    <row r="9" customHeight="1" spans="1:31">
       <c r="A9" s="3">
-        <v>2003</v>
+        <v>1003</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2003</v>
+        <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2045,146 +2028,406 @@
         <v>74</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>25</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="4">
+        <v>10</v>
+      </c>
+      <c r="S9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" s="4">
+        <v>40</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:31">
+      <c r="A10" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="4">
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:31">
+      <c r="A11" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="4">
         <v>5</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M11" s="4">
+        <v>20</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="4">
+        <v>35</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="4">
+        <v>5</v>
+      </c>
+      <c r="S11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U11" s="4">
+        <v>15000</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W11" s="4">
+        <v>40</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:31">
+      <c r="A12" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4">
         <v>10</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N12" s="4">
         <v>1.5</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O12" s="4">
         <v>35</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="P12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="4">
         <v>10</v>
       </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="4">
+      <c r="S12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:30">
-      <c r="A10" s="3">
-        <v>101</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>101</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="4">
+    <row r="13" customHeight="1" spans="1:31">
+      <c r="A13" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="4">
         <v>2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M13" s="4">
         <v>3</v>
       </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
         <v>0.85</v>
       </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA10" s="4">
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB13" s="4">
         <v>50</v>
       </c>
-      <c r="AB10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="4">
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
         <v>0</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -1313,9 +1313,9 @@
   <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1679,6 +1679,15 @@
       <c r="S4" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
       <c r="Y4" s="4">
         <v>0</v>
       </c>
@@ -1742,6 +1751,15 @@
       <c r="S5" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
       <c r="Y5" s="4">
         <v>0</v>
       </c>
@@ -1805,6 +1823,15 @@
       <c r="S6" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
       <c r="Y6" s="4">
         <v>0</v>
       </c>
@@ -2231,7 +2258,7 @@
         <v>100</v>
       </c>
       <c r="U11" s="4">
-        <v>15000</v>
+        <v>150</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>96</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6640"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -40,9 +53,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>HitCheck</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -55,12 +65,12 @@
     <t>SpellRange</t>
   </si>
   <si>
+    <t>Cost</t>
+  </si>
+  <si>
     <t>IntonateTime</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Anim1</t>
   </si>
   <si>
@@ -85,12 +95,12 @@
     <t>Area</t>
   </si>
   <si>
+    <t>AreaOffset</t>
+  </si>
+  <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>Interval</t>
-  </si>
-  <si>
     <t>HitDelay</t>
   </si>
   <si>
@@ -145,9 +155,6 @@
     <t>类别</t>
   </si>
   <si>
-    <t>命中检查</t>
-  </si>
-  <si>
     <t>技能图标</t>
   </si>
   <si>
@@ -160,12 +167,12 @@
     <t>施法距离</t>
   </si>
   <si>
+    <t>魔法消耗</t>
+  </si>
+  <si>
     <t>施法前摇</t>
   </si>
   <si>
-    <t>魔法消耗</t>
-  </si>
-  <si>
     <t>前摇动作</t>
   </si>
   <si>
@@ -190,12 +197,12 @@
     <t>影响区域</t>
   </si>
   <si>
+    <t>区域偏移</t>
+  </si>
+  <si>
     <t>持续时间</t>
   </si>
   <si>
-    <t>伤害间隔</t>
-  </si>
-  <si>
     <t>命中延迟</t>
   </si>
   <si>
@@ -220,18 +227,33 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
+    <t>(0,1.2,1)</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
+  </si>
+  <si>
     <t>剑士基础连招二</t>
   </si>
   <si>
+    <t>(0,1.3,0.3)</t>
+  </si>
+  <si>
+    <t>[0.1]</t>
+  </si>
+  <si>
     <t>剑士基础连招三</t>
   </si>
   <si>
+    <t>(0,1.7,0.4)</t>
+  </si>
+  <si>
+    <t>[0.7]</t>
+  </si>
+  <si>
     <t>横剑击</t>
   </si>
   <si>
@@ -239,9 +261,6 @@
   </si>
   <si>
     <t>Skill</t>
-  </si>
-  <si>
-    <t>Server</t>
   </si>
   <si>
     <t>Icons/skill_icon_04</t>
@@ -343,7 +362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -367,34 +386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -408,14 +399,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,6 +438,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,7 +503,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,49 +545,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,97 +683,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,21 +738,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,6 +771,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,152 +842,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,58 +1007,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1310,45 +1326,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <selection pane="topRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
     <col min="4" max="4" width="14.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.1416666666667" style="4" customWidth="1"/>
     <col min="6" max="7" width="9.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.4166666666667" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="12" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="12" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4"/>
     <col min="14" max="14" width="15.75" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9" style="4"/>
-    <col min="16" max="16" width="12.875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="31.125" style="4" customWidth="1"/>
-    <col min="18" max="19" width="10.875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="25.25" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.75" style="4" customWidth="1"/>
-    <col min="22" max="22" width="35.75" style="4" customWidth="1"/>
-    <col min="23" max="23" width="9.625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="10.25" style="4" customWidth="1"/>
-    <col min="25" max="25" width="17.05" style="4" customWidth="1"/>
-    <col min="26" max="26" width="18.125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="9" style="4" customWidth="1"/>
-    <col min="28" max="29" width="9" style="4"/>
-    <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="4"/>
+    <col min="15" max="15" width="12.875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="31.125" style="4" customWidth="1"/>
+    <col min="17" max="18" width="10.875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="25.25" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.75" style="4" customWidth="1"/>
+    <col min="21" max="21" width="35.75" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9.625" style="4" customWidth="1"/>
+    <col min="23" max="24" width="10.25" style="4" customWidth="1"/>
+    <col min="25" max="25" width="18.125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9" style="4" customWidth="1"/>
+    <col min="27" max="28" width="9" style="4"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:31">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1439,70 +1453,67 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:30">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:31">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>31</v>
@@ -1514,126 +1525,120 @@
         <v>31</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:31">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:30">
       <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:31">
+    <row r="4" customHeight="1" spans="1:30">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -1644,68 +1649,67 @@
         <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="X4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4"/>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
       <c r="AB4" s="4">
         <v>0</v>
       </c>
       <c r="AC4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="7">
         <v>0.8</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AD4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:31">
+    <row r="5" customHeight="1" spans="1:30">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -1716,68 +1720,67 @@
         <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
       <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
       <c r="AB5" s="4">
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
         <v>0.7</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AD5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:31">
+    <row r="6" customHeight="1" spans="1:30">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1797,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
@@ -1814,41 +1817,41 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="4">
         <v>0</v>
       </c>
       <c r="AB6" s="4">
         <v>0</v>
       </c>
       <c r="AC6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
         <v>1.2</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AD6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:31">
+    <row r="7" customHeight="1" spans="1:30">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
@@ -1859,10 +1862,10 @@
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1871,73 +1874,67 @@
         <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.5</v>
       </c>
       <c r="L7" s="4">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="M7" s="4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="4">
-        <v>0</v>
+      <c r="O7" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" s="4">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="4">
         <v>0</v>
       </c>
       <c r="X7" s="4">
         <v>0.85</v>
       </c>
-      <c r="Y7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>80</v>
+      <c r="Y7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>20</v>
       </c>
       <c r="AB7" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD7" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="AE7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:31">
+    <row r="8" customHeight="1" spans="1:30">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
@@ -1948,88 +1945,82 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>5</v>
+      </c>
+      <c r="R8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="4">
-        <v>5</v>
-      </c>
-      <c r="M8" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>20</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R8" s="4">
-        <v>5</v>
-      </c>
-      <c r="S8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W8" s="4">
+      <c r="V8" s="4">
         <v>0</v>
       </c>
       <c r="X8" s="4">
         <v>0.85</v>
       </c>
-      <c r="Y8" s="4">
-        <v>0</v>
+      <c r="Y8" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>40</v>
       </c>
       <c r="AB8" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD8" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="AE8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:31">
+    <row r="9" customHeight="1" spans="1:30">
       <c r="A9" s="3">
         <v>1003</v>
       </c>
@@ -2040,10 +2031,10 @@
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2052,73 +2043,67 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3.5</v>
       </c>
       <c r="L9" s="4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="4">
-        <v>25</v>
+      <c r="O9" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="4">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="4">
         <v>10</v>
       </c>
-      <c r="S9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9" s="4">
+      <c r="R9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="4">
         <v>40</v>
       </c>
       <c r="X9" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>91</v>
+      <c r="Y9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>60</v>
       </c>
       <c r="AB9" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD9" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="AE9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:31">
+    <row r="10" customHeight="1" spans="1:30">
       <c r="A10" s="3">
         <v>2001</v>
       </c>
@@ -2129,10 +2114,10 @@
         <v>2001</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2141,62 +2126,56 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.5</v>
       </c>
       <c r="L10" s="4">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="M10" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4">
         <v>0.9</v>
       </c>
-      <c r="O10" s="4">
-        <v>0</v>
+      <c r="O10" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W10" s="4">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" s="4">
         <v>0</v>
       </c>
       <c r="X10" s="4">
         <v>0</v>
       </c>
-      <c r="Y10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4">
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:31">
+    <row r="11" customHeight="1" spans="1:30">
       <c r="A11" s="3">
         <v>2002</v>
       </c>
@@ -2207,10 +2186,10 @@
         <v>2002</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2219,71 +2198,65 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5</v>
       </c>
       <c r="L11" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M11" s="4">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N11" s="4">
         <v>1.5</v>
       </c>
-      <c r="O11" s="4">
-        <v>35</v>
+      <c r="O11" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="4">
+        <v>97</v>
+      </c>
+      <c r="Q11" s="4">
         <v>5</v>
       </c>
-      <c r="S11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U11" s="4">
+      <c r="R11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="4">
         <v>150</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W11" s="4">
+      <c r="U11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" s="4">
         <v>40</v>
       </c>
       <c r="X11" s="4">
         <v>0</v>
       </c>
-      <c r="Y11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4">
+      <c r="Y11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:31">
+    <row r="12" customHeight="1" spans="1:30">
       <c r="A12" s="3">
         <v>2003</v>
       </c>
@@ -2294,10 +2267,10 @@
         <v>2003</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2306,58 +2279,55 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5</v>
       </c>
       <c r="L12" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M12" s="4">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N12" s="4">
         <v>1.5</v>
       </c>
-      <c r="O12" s="4">
-        <v>35</v>
+      <c r="O12" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R12" s="4">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="4">
         <v>10</v>
       </c>
-      <c r="S12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W12" s="4">
+      <c r="R12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="4">
         <v>0</v>
       </c>
       <c r="X12" s="4">
         <v>0</v>
       </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>101</v>
+      <c r="Y12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
       </c>
       <c r="AB12" s="4">
         <v>0</v>
@@ -2368,11 +2338,8 @@
       <c r="AD12" s="4">
         <v>0</v>
       </c>
-      <c r="AE12" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" customHeight="1" spans="1:31">
+    <row r="13" customHeight="1" spans="1:30">
       <c r="A13" s="3">
         <v>10001</v>
       </c>
@@ -2383,10 +2350,10 @@
         <v>10001</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2395,66 +2362,60 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
       </c>
       <c r="L13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W13" s="4">
+      <c r="P13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" s="4">
         <v>0</v>
       </c>
       <c r="X13" s="4">
         <v>0.85</v>
       </c>
-      <c r="Y13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>107</v>
+      <c r="Y13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>50</v>
       </c>
       <c r="AB13" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="4">
         <v>0</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -224,7 +224,7 @@
     <t>剑士基础连招一</t>
   </si>
   <si>
-    <t>Normal</t>
+    <t>Combo</t>
   </si>
   <si>
     <t>None</t>
@@ -1329,9 +1329,9 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="V17" sqref="V17"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -50,7 +50,7 @@
     <t>MaxLevel</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Mode</t>
   </si>
   <si>
     <t>Icon</t>
@@ -152,7 +152,7 @@
     <t>技能上限</t>
   </si>
   <si>
-    <t>类别</t>
+    <t>模式</t>
   </si>
   <si>
     <t>技能图标</t>
@@ -1329,9 +1329,9 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -263,7 +263,7 @@
     <t>Skill</t>
   </si>
   <si>
-    <t>Icons/skill_icon_04</t>
+    <t>Warriorskill_13</t>
   </si>
   <si>
     <t>Unit</t>
@@ -284,7 +284,7 @@
     <t>对单个目标造成物理攻击，添加流血效果</t>
   </si>
   <si>
-    <t>Icons/skill_icon_02</t>
+    <t>Warriorskill_10</t>
   </si>
   <si>
     <t>[0.3,0.6,0.9]</t>
@@ -299,7 +299,7 @@
     <t>对自身周围造成范围伤害</t>
   </si>
   <si>
-    <t>Icons/skill_icon_03</t>
+    <t>Warriorskill_35</t>
   </si>
   <si>
     <t>Spell</t>
@@ -317,9 +317,6 @@
     <t>法师的基础法术，无消耗</t>
   </si>
   <si>
-    <t>Icons/skill_icon_01</t>
-  </si>
-  <si>
     <t>Intonate</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
   </si>
   <si>
     <t>对目标位置造成范围法术伤害</t>
-  </si>
-  <si>
-    <t>Icons/stoune_icon</t>
   </si>
   <si>
     <t>Effects/Fly/FireBall</t>
@@ -1331,7 +1325,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2128,9 +2122,6 @@
       <c r="H10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="J10" s="4" t="s">
         <v>79</v>
       </c>
@@ -2147,22 +2138,22 @@
         <v>0.9</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="V10" s="4">
         <v>0</v>
@@ -2186,10 +2177,10 @@
         <v>2002</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2200,9 +2191,6 @@
       <c r="H11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="J11" s="4" t="s">
         <v>79</v>
       </c>
@@ -2219,10 +2207,10 @@
         <v>1.5</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="4">
         <v>5</v>
@@ -2231,13 +2219,13 @@
         <v>1</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T11" s="4">
         <v>150</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V11" s="4">
         <v>40</v>
@@ -2246,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
@@ -2267,10 +2255,10 @@
         <v>2003</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2281,11 +2269,8 @@
       <c r="H12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -2324,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA12" s="4">
         <v>0</v>
@@ -2350,10 +2335,10 @@
         <v>10001</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2364,9 +2349,6 @@
       <c r="H13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="J13" s="4" t="s">
         <v>79</v>
       </c>
@@ -2395,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V13" s="4">
         <v>0</v>
@@ -2404,7 +2386,7 @@
         <v>0.85</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA13" s="4">
         <v>50</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -272,10 +272,10 @@
     <t>Attack</t>
   </si>
   <si>
+    <t>JianHengJi</t>
+  </si>
+  <si>
     <t>Effects/Hits/Holy hit</t>
-  </si>
-  <si>
-    <t>[0.4]</t>
   </si>
   <si>
     <t>剑刃噬心</t>
@@ -1323,9 +1323,9 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1892,7 +1892,7 @@
         <v>80</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1904,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" s="4">
         <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AA7" s="4">
         <v>20</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" s="4">
         <v>40</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" s="4">
         <v>0</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -266,55 +266,55 @@
     <t>Warriorskill_13</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>JianHengJi</t>
+  </si>
+  <si>
+    <t>Effects/Hits/Holy hit</t>
+  </si>
+  <si>
+    <t>剑刃噬心</t>
+  </si>
+  <si>
+    <t>对单个目标造成物理攻击，添加流血效果</t>
+  </si>
+  <si>
+    <t>Warriorskill_10</t>
+  </si>
+  <si>
+    <t>[0.3,0.6,0.9]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>剑荡八荒</t>
+  </si>
+  <si>
+    <t>对自身周围造成范围伤害</t>
+  </si>
+  <si>
+    <t>Warriorskill_35</t>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>Attack04_Spinning_SwordAndShield</t>
+  </si>
+  <si>
+    <t>[0.4,0.8,1.2]</t>
+  </si>
+  <si>
+    <t>火灵咒</t>
+  </si>
+  <si>
+    <t>法师的基础法术，无消耗</t>
+  </si>
+  <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>JianHengJi</t>
-  </si>
-  <si>
-    <t>Effects/Hits/Holy hit</t>
-  </si>
-  <si>
-    <t>剑刃噬心</t>
-  </si>
-  <si>
-    <t>对单个目标造成物理攻击，添加流血效果</t>
-  </si>
-  <si>
-    <t>Warriorskill_10</t>
-  </si>
-  <si>
-    <t>[0.3,0.6,0.9]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>剑荡八荒</t>
-  </si>
-  <si>
-    <t>对自身周围造成范围伤害</t>
-  </si>
-  <si>
-    <t>Warriorskill_35</t>
-  </si>
-  <si>
-    <t>Spell</t>
-  </si>
-  <si>
-    <t>Attack04_Spinning_SwordAndShield</t>
-  </si>
-  <si>
-    <t>[0.4,0.8,1.2]</t>
-  </si>
-  <si>
-    <t>火灵咒</t>
-  </si>
-  <si>
-    <t>法师的基础法术，无消耗</t>
   </si>
   <si>
     <t>Intonate</t>
@@ -1323,9 +1323,9 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U19" sqref="U19"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1874,7 +1874,7 @@
         <v>78</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K7" s="4">
         <v>1.5</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="V7" s="4">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1954,10 +1954,10 @@
         <v>77</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K8" s="4">
         <v>5</v>
@@ -1972,22 +1972,22 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
       </c>
       <c r="R8" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -1996,10 +1996,10 @@
         <v>0.85</v>
       </c>
       <c r="Y8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AA8" s="4">
         <v>40</v>
@@ -2025,10 +2025,10 @@
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>77</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>66</v>
@@ -2058,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
       </c>
       <c r="R9" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V9" s="4">
         <v>40</v>
@@ -2082,7 +2082,7 @@
         <v>1.5</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA9" s="4">
         <v>60</v>
@@ -2108,10 +2108,10 @@
         <v>2001</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>77</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K10" s="4">
         <v>1.5</v>
@@ -2192,7 +2192,7 @@
         <v>77</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K11" s="4">
         <v>5</v>
@@ -2285,10 +2285,10 @@
         <v>1.5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="4">
         <v>10</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V12" s="4">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>77</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K13" s="4">
         <v>2</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="4">
         <v>0</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -266,79 +266,88 @@
     <t>Warriorskill_13</t>
   </si>
   <si>
+    <t>JianHengJi</t>
+  </si>
+  <si>
+    <t>Effects/Hits/Holy hit</t>
+  </si>
+  <si>
+    <t>龙牙猛击</t>
+  </si>
+  <si>
+    <t>对穿刺范围内的目标造成物理攻击，添加流血效果</t>
+  </si>
+  <si>
+    <t>Archerskill_05</t>
+  </si>
+  <si>
+    <t>LongYaMengJi</t>
+  </si>
+  <si>
+    <t>[0.3,0.6,0.9]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>剑刃噬心</t>
+  </si>
+  <si>
+    <t>对自身周围造成范围伤害</t>
+  </si>
+  <si>
+    <t>Warriorskill_35</t>
+  </si>
+  <si>
+    <t>JianRenShiXin</t>
+  </si>
+  <si>
+    <t>[0.4,0.8,1.2]</t>
+  </si>
+  <si>
+    <t>沉天陨击</t>
+  </si>
+  <si>
+    <t>Priestskill_28</t>
+  </si>
+  <si>
+    <t>ChenTianYunJi</t>
+  </si>
+  <si>
+    <t>火灵咒</t>
+  </si>
+  <si>
+    <t>法师的基础法术，无消耗</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Intonate</t>
+  </si>
+  <si>
+    <t>Effects/Hits/Explosion</t>
+  </si>
+  <si>
+    <t>南明离火</t>
+  </si>
+  <si>
+    <t>对目标位置造成范围法术伤害</t>
+  </si>
+  <si>
+    <t>Effects/Fly/FireBall</t>
+  </si>
+  <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>自定义技能</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
     <t>Attack</t>
-  </si>
-  <si>
-    <t>JianHengJi</t>
-  </si>
-  <si>
-    <t>Effects/Hits/Holy hit</t>
-  </si>
-  <si>
-    <t>剑刃噬心</t>
-  </si>
-  <si>
-    <t>对单个目标造成物理攻击，添加流血效果</t>
-  </si>
-  <si>
-    <t>Warriorskill_10</t>
-  </si>
-  <si>
-    <t>[0.3,0.6,0.9]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>剑荡八荒</t>
-  </si>
-  <si>
-    <t>对自身周围造成范围伤害</t>
-  </si>
-  <si>
-    <t>Warriorskill_35</t>
-  </si>
-  <si>
-    <t>Spell</t>
-  </si>
-  <si>
-    <t>Attack04_Spinning_SwordAndShield</t>
-  </si>
-  <si>
-    <t>[0.4,0.8,1.2]</t>
-  </si>
-  <si>
-    <t>火灵咒</t>
-  </si>
-  <si>
-    <t>法师的基础法术，无消耗</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Intonate</t>
-  </si>
-  <si>
-    <t>Effects/Hits/Explosion</t>
-  </si>
-  <si>
-    <t>南明离火</t>
-  </si>
-  <si>
-    <t>对目标位置造成范围法术伤害</t>
-  </si>
-  <si>
-    <t>Effects/Fly/FireBall</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
-  </si>
-  <si>
-    <t>自定义技能</t>
-  </si>
-  <si>
-    <t>Position</t>
   </si>
   <si>
     <t>野怪近战[物理]</t>
@@ -1320,12 +1329,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1888,23 +1897,21 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="V7" s="4">
         <v>0</v>
@@ -1939,10 +1946,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1954,13 +1961,13 @@
         <v>77</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>66</v>
       </c>
       <c r="K8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="4">
         <v>3.5</v>
@@ -1971,11 +1978,9 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
@@ -1987,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -2046,7 +2051,7 @@
         <v>66</v>
       </c>
       <c r="K9" s="4">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -2057,11 +2062,9 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2073,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V9" s="4">
         <v>40</v>
@@ -2082,7 +2085,7 @@
         <v>1.5</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA9" s="4">
         <v>60</v>
@@ -2099,19 +2102,19 @@
     </row>
     <row r="10" customHeight="1" spans="1:30">
       <c r="A10" s="3">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2122,65 +2125,77 @@
       <c r="H10" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="I10" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K10" s="4">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>25</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="4">
+        <v>40</v>
+      </c>
+      <c r="X10" s="4">
         <v>1.5</v>
       </c>
-      <c r="L10" s="4">
-        <v>10</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4"/>
+      <c r="Y10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>60</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0.8</v>
+      </c>
       <c r="AD10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:30">
       <c r="A11" s="3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2192,51 +2207,42 @@
         <v>77</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L11" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M11" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="T11" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V11" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB11" s="4">
         <v>0</v>
       </c>
       <c r="AC11" s="4"/>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="12" customHeight="1" spans="1:30">
       <c r="A12" s="3">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2270,13 +2276,13 @@
         <v>77</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
       </c>
       <c r="L12" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M12" s="4">
         <v>35</v>
@@ -2285,60 +2291,58 @@
         <v>1.5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R12" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="S12" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="T12" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="V12" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X12" s="4">
         <v>0</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AB12" s="4">
         <v>0</v>
       </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
+      <c r="AC12" s="4"/>
       <c r="AD12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:30">
       <c r="A13" s="3">
-        <v>10001</v>
+        <v>2003</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>10001</v>
+        <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2350,54 +2354,134 @@
         <v>77</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>10</v>
+      </c>
+      <c r="M13" s="4">
+        <v>35</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>10</v>
+      </c>
+      <c r="R13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:30">
+      <c r="A14" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="4">
         <v>2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="4">
         <v>3</v>
       </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4" t="s">
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="V13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4">
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
         <v>0.85</v>
       </c>
-      <c r="Y13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA13" s="4">
+      <c r="Y14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA14" s="4">
         <v>50</v>
       </c>
-      <c r="AB13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="4">
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="4">
         <v>0</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -1332,9 +1332,9 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Z19" sqref="Z19"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
+    <workbookView windowWidth="22700" windowHeight="6630" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -80,13 +67,7 @@
     <t>ReqLevel</t>
   </si>
   <si>
-    <t>IsMissile</t>
-  </si>
-  <si>
-    <t>Missile</t>
-  </si>
-  <si>
-    <t>MissileSpeed</t>
+    <t>MissileUnitId</t>
   </si>
   <si>
     <t>HitArt</t>
@@ -128,9 +109,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
@@ -182,13 +160,7 @@
     <t>等级要求</t>
   </si>
   <si>
-    <t>是否投射物</t>
-  </si>
-  <si>
-    <t>投射物</t>
-  </si>
-  <si>
-    <t>投射速度</t>
+    <t>投射物UnitId</t>
   </si>
   <si>
     <t>击中效果</t>
@@ -333,9 +305,6 @@
   </si>
   <si>
     <t>对目标位置造成范围法术伤害</t>
-  </si>
-  <si>
-    <t>Effects/Fly/FireBall</t>
   </si>
   <si>
     <t>[0.2]</t>
@@ -365,7 +334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -389,6 +358,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -402,6 +399,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,21 +446,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,28 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,13 +517,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,24 +583,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -608,18 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -632,36 +637,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -680,19 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,6 +710,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,21 +758,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,148 +814,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,52 +982,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1329,12 +1298,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1352,20 +1321,19 @@
     <col min="14" max="14" width="15.75" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="4" customWidth="1"/>
     <col min="16" max="16" width="31.125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="10.875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="25.25" style="4" customWidth="1"/>
-    <col min="20" max="20" width="12.75" style="4" customWidth="1"/>
-    <col min="21" max="21" width="35.75" style="4" customWidth="1"/>
-    <col min="22" max="22" width="9.625" style="4" customWidth="1"/>
-    <col min="23" max="24" width="10.25" style="4" customWidth="1"/>
-    <col min="25" max="25" width="18.125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="9" style="4" customWidth="1"/>
-    <col min="27" max="28" width="9" style="4"/>
-    <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="4"/>
+    <col min="17" max="17" width="10.875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="25.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="35.75" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="4" customWidth="1"/>
+    <col min="21" max="22" width="10.25" style="4" customWidth="1"/>
+    <col min="23" max="23" width="18.125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="9" style="4" customWidth="1"/>
+    <col min="25" max="26" width="9" style="4"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1450,198 +1418,180 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:30">
-      <c r="A2" s="5" t="s">
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:28">
+      <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>32</v>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:30">
-      <c r="A3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:30">
+    <row r="4" customHeight="1" spans="1:28">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -1652,7 +1602,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1661,10 +1611,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -1681,38 +1631,35 @@
       <c r="Q4" s="4">
         <v>0</v>
       </c>
-      <c r="R4" s="4" t="b">
+      <c r="R4" s="4">
         <v>0</v>
       </c>
       <c r="T4" s="4">
-        <v>0</v>
+        <v>1.7</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="V4" s="4">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
       </c>
       <c r="AA4" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB4" s="4">
         <v>0</v>
       </c>
-      <c r="AC4" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:30">
+    <row r="5" customHeight="1" spans="1:28">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -1723,7 +1670,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1732,58 +1679,55 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="V5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>71</v>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
       </c>
       <c r="AA5" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
       </c>
-      <c r="AC5" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:30">
+    <row r="6" customHeight="1" spans="1:28">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -1794,7 +1738,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1803,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -1823,38 +1767,35 @@
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="4" t="b">
+      <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="V6" s="4">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
       </c>
       <c r="AA6" s="4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB6" s="4">
         <v>0</v>
       </c>
-      <c r="AC6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:30">
+    <row r="7" customHeight="1" spans="1:28">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
@@ -1865,10 +1806,10 @@
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1877,13 +1818,13 @@
         <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K7" s="4">
         <v>1.5</v>
@@ -1897,45 +1838,41 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="4" t="b">
-        <v>0</v>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
         <v>0.4</v>
       </c>
-      <c r="Y7" s="4" t="s">
-        <v>68</v>
+      <c r="W7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
       </c>
       <c r="AA7" s="4">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
       </c>
-      <c r="AC7" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:30">
+    <row r="8" customHeight="1" spans="1:28">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
@@ -1946,10 +1883,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1958,13 +1895,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K8" s="4">
         <v>3</v>
@@ -1978,48 +1915,44 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
       </c>
-      <c r="R8" s="4" t="b">
-        <v>0</v>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>86</v>
+      <c r="X8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
       </c>
       <c r="AA8" s="4">
-        <v>40</v>
+        <v>0.6</v>
       </c>
       <c r="AB8" s="4">
         <v>0</v>
       </c>
-      <c r="AC8" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:30">
+    <row r="9" customHeight="1" spans="1:28">
       <c r="A9" s="3">
         <v>1003</v>
       </c>
@@ -2030,10 +1963,10 @@
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2042,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K9" s="4">
         <v>7</v>
@@ -2062,45 +1995,41 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
       </c>
-      <c r="R9" s="4" t="b">
-        <v>0</v>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V9" s="4">
-        <v>40</v>
-      </c>
-      <c r="X9" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y9" s="4" t="s">
-        <v>91</v>
+      <c r="W9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
       </c>
       <c r="AA9" s="4">
-        <v>60</v>
+        <v>0.8</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
       </c>
-      <c r="AC9" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" customHeight="1" spans="1:30">
+    <row r="10" customHeight="1" spans="1:28">
       <c r="A10" s="3">
         <v>1004</v>
       </c>
@@ -2111,25 +2040,25 @@
         <v>1004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K10" s="4">
         <v>10</v>
@@ -2143,45 +2072,41 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="4">
         <v>10</v>
       </c>
-      <c r="R10" s="4" t="b">
-        <v>0</v>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V10" s="4">
-        <v>40</v>
-      </c>
-      <c r="X10" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>91</v>
+      <c r="W10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>60</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
       </c>
       <c r="AA10" s="4">
-        <v>60</v>
+        <v>0.8</v>
       </c>
       <c r="AB10" s="4">
         <v>0</v>
       </c>
-      <c r="AC10" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" customHeight="1" spans="1:30">
+    <row r="11" customHeight="1" spans="1:28">
       <c r="A11" s="3">
         <v>2001</v>
       </c>
@@ -2192,10 +2117,10 @@
         <v>2001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2204,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K11" s="4">
         <v>1.5</v>
@@ -2222,35 +2147,32 @@
         <v>0.9</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="4" t="b">
-        <v>1</v>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
       </c>
-      <c r="U11" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="V11" s="4">
         <v>0</v>
       </c>
-      <c r="X11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4">
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:30">
+    <row r="12" customHeight="1" spans="1:28">
       <c r="A12" s="3">
         <v>2002</v>
       </c>
@@ -2261,10 +2183,10 @@
         <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2273,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -2291,44 +2213,38 @@
         <v>1.5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="4">
         <v>5</v>
       </c>
-      <c r="R12" s="4" t="b">
-        <v>1</v>
+      <c r="R12" s="4">
+        <v>0</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="T12" s="4">
-        <v>150</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="V12" s="4">
-        <v>40</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4"/>
       <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:30">
+    <row r="13" customHeight="1" spans="1:28">
       <c r="A13" s="3">
         <v>2003</v>
       </c>
@@ -2339,10 +2255,10 @@
         <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2351,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
@@ -2369,31 +2285,34 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="4">
         <v>10</v>
       </c>
-      <c r="R13" s="4" t="b">
-        <v>1</v>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
       </c>
-      <c r="U13" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="V13" s="4">
         <v>0</v>
       </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>103</v>
+      <c r="W13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
       </c>
       <c r="AA13" s="4">
         <v>0</v>
@@ -2401,14 +2320,8 @@
       <c r="AB13" s="4">
         <v>0</v>
       </c>
-      <c r="AC13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" customHeight="1" spans="1:30">
+    <row r="14" customHeight="1" spans="1:28">
       <c r="A14" s="3">
         <v>10001</v>
       </c>
@@ -2419,10 +2332,10 @@
         <v>10001</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2431,10 +2344,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -2449,39 +2362,36 @@
         <v>0</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
       </c>
-      <c r="R14" s="4" t="b">
-        <v>1</v>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="V14" s="4">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4">
         <v>0.85</v>
       </c>
-      <c r="Y14" s="4" t="s">
-        <v>110</v>
+      <c r="W14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>50</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
       </c>
       <c r="AA14" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="4">
         <v>0</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6630" tabRatio="173"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -244,6 +257,9 @@
     <t>Effects/Hits/Holy hit</t>
   </si>
   <si>
+    <t>(0,0,1)</t>
+  </si>
+  <si>
     <t>龙牙猛击</t>
   </si>
   <si>
@@ -256,7 +272,10 @@
     <t>LongYaMengJi</t>
   </si>
   <si>
-    <t>[0.3,0.6,0.9]</t>
+    <t>(0,1.1,2.45)</t>
+  </si>
+  <si>
+    <t>[0.6]</t>
   </si>
   <si>
     <t>[1]</t>
@@ -274,9 +293,6 @@
     <t>JianRenShiXin</t>
   </si>
   <si>
-    <t>[0.4,0.8,1.2]</t>
-  </si>
-  <si>
     <t>沉天陨击</t>
   </si>
   <si>
@@ -286,6 +302,12 @@
     <t>ChenTianYunJi</t>
   </si>
   <si>
+    <t>(0,0,1.5)</t>
+  </si>
+  <si>
+    <t>[0.5]</t>
+  </si>
+  <si>
     <t>火灵咒</t>
   </si>
   <si>
@@ -326,15 +348,12 @@
   </si>
   <si>
     <t>Effects/Hits/Stones hit</t>
-  </si>
-  <si>
-    <t>[0.5]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -358,34 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -399,14 +390,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,6 +429,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,7 +494,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,49 +536,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,97 +674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,21 +729,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +762,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,148 +833,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,52 +1001,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1301,9 +1320,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S5" sqref="S5"/>
+      <selection pane="topRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1322,8 +1341,8 @@
     <col min="15" max="15" width="12.875" style="4" customWidth="1"/>
     <col min="16" max="16" width="31.125" style="4" customWidth="1"/>
     <col min="17" max="17" width="10.875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="25.25" style="4" customWidth="1"/>
-    <col min="19" max="19" width="35.75" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.4666666666667" style="4" customWidth="1"/>
+    <col min="19" max="19" width="25.575" style="4" customWidth="1"/>
     <col min="20" max="20" width="9.625" style="4" customWidth="1"/>
     <col min="21" max="22" width="10.25" style="4" customWidth="1"/>
     <col min="23" max="23" width="18.125" style="4" customWidth="1"/>
@@ -1851,7 +1870,10 @@
         <v>75</v>
       </c>
       <c r="T7" s="4">
-        <v>0</v>
+        <v>4.5</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="V7" s="4">
         <v>0.4</v>
@@ -1883,10 +1905,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1898,7 +1920,7 @@
         <v>72</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>61</v>
@@ -1916,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
@@ -1928,16 +1950,19 @@
         <v>75</v>
       </c>
       <c r="T8" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="V8" s="4">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y8" s="4">
         <v>40</v>
@@ -1963,10 +1988,10 @@
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1978,7 +2003,7 @@
         <v>72</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>61</v>
@@ -1996,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2007,15 +2032,7 @@
       <c r="S9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="T9" s="4">
-        <v>40</v>
-      </c>
-      <c r="V9" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="T9" s="4"/>
       <c r="Y9" s="4">
         <v>60</v>
       </c>
@@ -2040,10 +2057,10 @@
         <v>1004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2055,7 +2072,7 @@
         <v>72</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>61</v>
@@ -2073,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="4">
         <v>10</v>
@@ -2085,13 +2102,16 @@
         <v>75</v>
       </c>
       <c r="T10" s="4">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="V10" s="4">
         <v>1.5</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Y10" s="4">
         <v>60</v>
@@ -2117,10 +2137,10 @@
         <v>2001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2132,7 +2152,7 @@
         <v>72</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K11" s="4">
         <v>1.5</v>
@@ -2147,10 +2167,10 @@
         <v>0.9</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2159,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -2183,10 +2203,10 @@
         <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2198,7 +2218,7 @@
         <v>72</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -2213,10 +2233,10 @@
         <v>1.5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="4">
         <v>5</v>
@@ -2225,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T12" s="4">
         <v>40</v>
@@ -2234,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="4">
         <v>0</v>
@@ -2255,10 +2275,10 @@
         <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2270,7 +2290,7 @@
         <v>72</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
@@ -2285,10 +2305,10 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="4">
         <v>10</v>
@@ -2306,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="4">
         <v>0</v>
@@ -2332,10 +2352,10 @@
         <v>10001</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2347,7 +2367,7 @@
         <v>72</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -2362,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -2371,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
@@ -2380,7 +2400,7 @@
         <v>0.85</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="Y14" s="4">
         <v>50</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -215,7 +215,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>(0,1.2,1)</t>
+    <t>(0,1.2,2)</t>
   </si>
   <si>
     <t>[0.3]</t>
@@ -224,19 +224,7 @@
     <t>剑士基础连招二</t>
   </si>
   <si>
-    <t>(0,1.3,0.3)</t>
-  </si>
-  <si>
-    <t>[0.1]</t>
-  </si>
-  <si>
     <t>剑士基础连招三</t>
-  </si>
-  <si>
-    <t>(0,1.7,0.4)</t>
-  </si>
-  <si>
-    <t>[0.7]</t>
   </si>
   <si>
     <t>横剑击</t>
@@ -1322,7 +1310,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W17" sqref="W17"/>
+      <selection pane="topRight" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1654,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="4">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>62</v>
@@ -1666,7 +1654,7 @@
         <v>63</v>
       </c>
       <c r="Y4" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z4" s="4">
         <v>0</v>
@@ -1722,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="T5" s="4">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V5" s="4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z5" s="4">
         <v>0</v>
@@ -1757,7 +1745,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1790,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="V6" s="4">
         <v>0.4</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y6" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z6" s="4">
         <v>0</v>
@@ -1825,10 +1813,10 @@
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1837,10 +1825,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>61</v>
@@ -1858,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1867,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T7" s="4">
         <v>4.5</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V7" s="4">
         <v>0.4</v>
@@ -1905,10 +1893,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1917,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>61</v>
@@ -1938,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
@@ -1947,22 +1935,22 @@
         <v>0</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T8" s="4">
         <v>3</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V8" s="4">
         <v>0.3</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Y8" s="4">
         <v>40</v>
@@ -1988,10 +1976,10 @@
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2000,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>61</v>
@@ -2021,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2030,9 +2018,8 @@
         <v>0</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" s="4"/>
+        <v>71</v>
+      </c>
       <c r="Y9" s="4">
         <v>60</v>
       </c>
@@ -2057,22 +2044,22 @@
         <v>1004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>61</v>
@@ -2090,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="4">
         <v>10</v>
@@ -2099,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T10" s="4">
         <v>7</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V10" s="4">
         <v>1.5</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y10" s="4">
         <v>60</v>
@@ -2137,10 +2124,10 @@
         <v>2001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2149,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K11" s="4">
         <v>1.5</v>
@@ -2167,10 +2154,10 @@
         <v>0.9</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2179,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -2203,10 +2190,10 @@
         <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2215,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -2233,10 +2220,10 @@
         <v>1.5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="4">
         <v>5</v>
@@ -2245,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="T12" s="4">
         <v>40</v>
@@ -2254,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Z12" s="4">
         <v>0</v>
@@ -2275,10 +2262,10 @@
         <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2287,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
@@ -2305,10 +2292,10 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="4">
         <v>10</v>
@@ -2317,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
@@ -2326,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y13" s="4">
         <v>0</v>
@@ -2352,10 +2339,10 @@
         <v>10001</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2364,10 +2351,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -2382,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -2391,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
@@ -2400,7 +2387,7 @@
         <v>0.85</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y14" s="4">
         <v>50</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -86,15 +86,15 @@
     <t>HitArt</t>
   </si>
   <si>
+    <t>Duration</t>
+  </si>
+  <si>
     <t>Area</t>
   </si>
   <si>
     <t>AreaOffset</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>HitDelay</t>
   </si>
   <si>
@@ -179,13 +179,13 @@
     <t>击中效果</t>
   </si>
   <si>
+    <t>持续时间</t>
+  </si>
+  <si>
     <t>影响区域</t>
   </si>
   <si>
     <t>区域偏移</t>
-  </si>
-  <si>
-    <t>持续时间</t>
   </si>
   <si>
     <t>命中延迟</t>
@@ -1308,9 +1308,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Y16" sqref="Y16"/>
+      <selection pane="topRight" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1331,8 +1331,9 @@
     <col min="17" max="17" width="10.875" style="4" customWidth="1"/>
     <col min="18" max="18" width="16.4666666666667" style="4" customWidth="1"/>
     <col min="19" max="19" width="25.575" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="4" customWidth="1"/>
-    <col min="21" max="22" width="10.25" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="10.25" style="4" customWidth="1"/>
     <col min="23" max="23" width="18.125" style="4" customWidth="1"/>
     <col min="24" max="24" width="9" style="4" customWidth="1"/>
     <col min="25" max="26" width="9" style="4"/>
@@ -1488,10 +1489,10 @@
         <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>29</v>
@@ -1642,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="T4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="U4" s="4">
         <v>4.5</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0.4</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>63</v>
@@ -1710,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="T5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="U5" s="4">
         <v>4.5</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0.4</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>63</v>
@@ -1778,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="T6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="U6" s="4">
         <v>4.5</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0.4</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>63</v>
@@ -1858,13 +1859,13 @@
         <v>71</v>
       </c>
       <c r="T7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="U7" s="4">
         <v>4.5</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0.4</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>63</v>
@@ -1938,13 +1939,13 @@
         <v>71</v>
       </c>
       <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
         <v>3</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0.3</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>78</v>
@@ -2020,6 +2021,9 @@
       <c r="S9" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="T9" s="4">
+        <v>0.5</v>
+      </c>
       <c r="Y9" s="4">
         <v>60</v>
       </c>
@@ -2089,13 +2093,13 @@
         <v>71</v>
       </c>
       <c r="T10" s="4">
+        <v>2</v>
+      </c>
+      <c r="U10" s="4">
         <v>7</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="V10" s="4">
-        <v>1.5</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>88</v>
@@ -2171,7 +2175,7 @@
       <c r="T11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="4">
+      <c r="U11" s="4">
         <v>0</v>
       </c>
       <c r="AA11" s="4"/>
@@ -2235,10 +2239,10 @@
         <v>93</v>
       </c>
       <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
         <v>40</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>96</v>
@@ -2309,7 +2313,7 @@
       <c r="T13" s="4">
         <v>0</v>
       </c>
-      <c r="V13" s="4">
+      <c r="U13" s="4">
         <v>0</v>
       </c>
       <c r="W13" s="4" t="s">
@@ -2381,10 +2385,10 @@
         <v>102</v>
       </c>
       <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4">
         <v>0.85</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>88</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
+    <workbookView windowWidth="22920" windowHeight="7190" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -329,19 +316,19 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>野怪近战[物理]</t>
-  </si>
-  <si>
-    <t>野怪通用近战物理攻击</t>
-  </si>
-  <si>
-    <t>Effects/Hits/Stones hit</t>
+    <t>哥布林近战</t>
+  </si>
+  <si>
+    <t>哥布林近战物理攻击</t>
+  </si>
+  <si>
+    <t>(0,0.2,2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -365,6 +352,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -378,6 +393,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,21 +440,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,28 +490,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,13 +511,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,24 +577,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -584,18 +619,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -608,36 +631,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -656,19 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,6 +704,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,21 +752,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,148 +808,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,52 +976,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1310,7 +1297,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U16" sqref="U16"/>
+      <selection pane="topRight" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2337,7 +2324,7 @@
         <v>10001</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="C14" s="3">
         <v>10001</v>
@@ -2358,13 +2345,13 @@
         <v>68</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="K14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -2381,14 +2368,15 @@
       <c r="R14" s="4">
         <v>0</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="U14" s="4">
+        <v>2</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="U14" s="4">
-        <v>0</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>88</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190" tabRatio="173"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -100,6 +113,9 @@
     <t>Apc</t>
   </si>
   <si>
+    <t>Force</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -191,6 +207,9 @@
   </si>
   <si>
     <t>法攻加成</t>
+  </si>
+  <si>
+    <t>对实体施加的力</t>
   </si>
   <si>
     <t>剑士基础连招一</t>
@@ -328,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -352,34 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -393,14 +384,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,6 +423,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,7 +488,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,49 +530,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,97 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,21 +723,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,6 +756,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,148 +827,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,52 +995,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1292,12 +1311,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="V14" sqref="V14"/>
+      <selection pane="topRight" activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1325,10 +1344,12 @@
     <col min="24" max="24" width="9" style="4" customWidth="1"/>
     <col min="25" max="26" width="9" style="4"/>
     <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="4"/>
+    <col min="28" max="28" width="9" style="4"/>
+    <col min="29" max="29" width="13.45" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1413,180 +1434,189 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:28">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:28">
+    <row r="4" customHeight="1" spans="1:29">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -1597,7 +1627,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1606,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -1636,10 +1666,10 @@
         <v>4.5</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y4" s="4">
         <v>100</v>
@@ -1653,8 +1683,11 @@
       <c r="AB4" s="4">
         <v>0</v>
       </c>
+      <c r="AC4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:28">
+    <row r="5" customHeight="1" spans="1:29">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -1665,7 +1698,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1674,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -1704,10 +1737,10 @@
         <v>4.5</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y5" s="4">
         <v>100</v>
@@ -1721,8 +1754,11 @@
       <c r="AB5" s="4">
         <v>0</v>
       </c>
+      <c r="AC5" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:28">
+    <row r="6" customHeight="1" spans="1:29">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -1733,7 +1769,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1742,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -1772,10 +1808,10 @@
         <v>4.5</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="4">
         <v>100</v>
@@ -1788,6 +1824,9 @@
       </c>
       <c r="AB6" s="4">
         <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:28">
@@ -1801,10 +1840,10 @@
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1813,13 +1852,13 @@
         <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K7" s="4">
         <v>1.5</v>
@@ -1834,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1843,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T7" s="4">
         <v>0.8</v>
@@ -1852,10 +1891,10 @@
         <v>4.5</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y7" s="4">
         <v>20</v>
@@ -1881,10 +1920,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1893,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K8" s="4">
         <v>3</v>
@@ -1914,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
@@ -1923,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T8" s="4">
         <v>1</v>
@@ -1932,13 +1971,13 @@
         <v>3</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y8" s="4">
         <v>40</v>
@@ -1964,10 +2003,10 @@
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1976,13 +2015,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9" s="4">
         <v>7</v>
@@ -1997,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2006,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T9" s="4">
         <v>0.5</v>
@@ -2035,10 +2074,10 @@
         <v>1004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2047,13 +2086,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="4">
         <v>10</v>
@@ -2068,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="4">
         <v>10</v>
@@ -2077,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T10" s="4">
         <v>2</v>
@@ -2086,10 +2125,10 @@
         <v>7</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y10" s="4">
         <v>60</v>
@@ -2115,10 +2154,10 @@
         <v>2001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2127,10 +2166,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K11" s="4">
         <v>1.5</v>
@@ -2145,10 +2184,10 @@
         <v>0.9</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2157,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -2181,10 +2220,10 @@
         <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2193,10 +2232,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -2211,10 +2250,10 @@
         <v>1.5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="4">
         <v>5</v>
@@ -2223,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T12" s="4">
         <v>0</v>
@@ -2232,7 +2271,7 @@
         <v>40</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z12" s="4">
         <v>0</v>
@@ -2253,11 +2292,11 @@
         <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
@@ -2265,10 +2304,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
@@ -2283,10 +2322,10 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="4">
         <v>10</v>
@@ -2295,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
@@ -2304,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="4">
         <v>0</v>
@@ -2330,45 +2369,44 @@
         <v>10001</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="Q14" s="4">
         <v>0</v>
       </c>
       <c r="R14" s="4">
         <v>0</v>
       </c>
-      <c r="S14" s="4"/>
       <c r="T14" s="4">
         <v>0.8</v>
       </c>
@@ -2376,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y14" s="4">
         <v>50</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
+    <workbookView windowWidth="22920" windowHeight="7190" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -347,7 +334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -371,6 +358,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -384,6 +399,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,21 +446,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,28 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,13 +517,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,24 +583,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -590,18 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -614,36 +637,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -662,19 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,6 +710,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,21 +758,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,148 +814,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,52 +982,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1314,9 +1301,9 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC11" sqref="AC11"/>
+      <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1684,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:29">
@@ -1755,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:29">
@@ -1826,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:28">

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190" tabRatio="173"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -334,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -358,34 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -399,14 +384,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,6 +423,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,7 +488,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,49 +530,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,97 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,21 +723,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +756,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,148 +827,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,52 +995,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1303,7 +1316,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>[0.5]</t>
+  </si>
+  <si>
+    <t>风雷穿刺</t>
+  </si>
+  <si>
+    <t>Archerskill_06</t>
+  </si>
+  <si>
+    <t>FengLeiChuanCi</t>
   </si>
   <si>
     <t>火灵咒</t>
@@ -1311,12 +1320,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="topRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2145,19 +2154,19 @@
     </row>
     <row r="11" customHeight="1" spans="1:28">
       <c r="A11" s="3">
-        <v>2001</v>
+        <v>1005</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>2001</v>
+        <v>1005</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2168,62 +2177,64 @@
       <c r="H11" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="I11" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="J11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>25</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="L11" s="4">
-        <v>10</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="Q11" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R11" s="4">
         <v>0</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>60</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0.8</v>
+      </c>
       <c r="AB11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:28">
       <c r="A12" s="3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2235,45 +2246,39 @@
         <v>70</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K12" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M12" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4">
         <v>0</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="T12" s="4">
         <v>0</v>
       </c>
       <c r="U12" s="4">
-        <v>40</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z12" s="4">
         <v>0</v>
       </c>
       <c r="AA12" s="4"/>
@@ -2283,19 +2288,19 @@
     </row>
     <row r="13" customHeight="1" spans="1:28">
       <c r="A13" s="3">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2307,13 +2312,13 @@
         <v>70</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
       </c>
       <c r="L13" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M13" s="4">
         <v>35</v>
@@ -2322,57 +2327,52 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>5</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>40</v>
+      </c>
+      <c r="W13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>10</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0</v>
-      </c>
       <c r="Z13" s="4">
         <v>0</v>
       </c>
-      <c r="AA13" s="4">
-        <v>0</v>
-      </c>
+      <c r="AA13" s="4"/>
       <c r="AB13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:28">
       <c r="A14" s="3">
-        <v>10001</v>
+        <v>2003</v>
       </c>
       <c r="B14" s="3">
-        <v>1005</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>10001</v>
+        <v>2003</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2384,51 +2384,128 @@
         <v>70</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4">
+        <v>35</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>10</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:28">
+      <c r="A15" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
         <v>0.8</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U15" s="4">
         <v>2</v>
       </c>
-      <c r="V14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W14" s="4" t="s">
+      <c r="V15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="W15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y15" s="4">
         <v>50</v>
       </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="4">
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="4">
         <v>0</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -275,21 +275,12 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>剑刃噬心</t>
+    <t>沉天陨击</t>
   </si>
   <si>
     <t>对自身周围造成范围伤害</t>
   </si>
   <si>
-    <t>Warriorskill_35</t>
-  </si>
-  <si>
-    <t>JianRenShiXin</t>
-  </si>
-  <si>
-    <t>沉天陨击</t>
-  </si>
-  <si>
     <t>Priestskill_28</t>
   </si>
   <si>
@@ -309,6 +300,12 @@
   </si>
   <si>
     <t>FengLeiChuanCi</t>
+  </si>
+  <si>
+    <t>(0,0.7,2)</t>
+  </si>
+  <si>
+    <t>[0.2,0.2,0.3,0.3,0.3,0.3,0.4]</t>
   </si>
   <si>
     <t>火灵咒</t>
@@ -1320,12 +1317,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1349,7 +1346,7 @@
     <col min="20" max="20" width="10.25" style="4" customWidth="1"/>
     <col min="21" max="21" width="9.625" style="4" customWidth="1"/>
     <col min="22" max="22" width="10.25" style="4" customWidth="1"/>
-    <col min="23" max="23" width="18.125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="20.1166666666667" style="4" customWidth="1"/>
     <col min="24" max="24" width="9" style="4" customWidth="1"/>
     <col min="25" max="26" width="9" style="4"/>
     <col min="27" max="27" width="12" customWidth="1"/>
@@ -2009,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>82</v>
@@ -2033,7 +2030,7 @@
         <v>63</v>
       </c>
       <c r="K9" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -2057,7 +2054,16 @@
         <v>73</v>
       </c>
       <c r="T9" s="4">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="U9" s="4">
+        <v>7</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="Y9" s="4">
         <v>60</v>
@@ -2072,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:28">
+    <row r="10" customHeight="1" spans="1:29">
       <c r="A10" s="3">
         <v>1004</v>
       </c>
@@ -2080,10 +2086,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>83</v>
@@ -2098,13 +2104,13 @@
         <v>70</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -2116,31 +2122,28 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="4">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="U10" s="4">
+        <v>3</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="4">
         <v>10</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" s="4">
-        <v>2</v>
-      </c>
-      <c r="U10" s="4">
-        <v>7</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>60</v>
       </c>
       <c r="Z10" s="4">
         <v>0</v>
@@ -2150,23 +2153,26 @@
       </c>
       <c r="AB10" s="4">
         <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:28">
       <c r="A11" s="3">
-        <v>1005</v>
+        <v>2001</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>1005</v>
+        <v>2001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2177,64 +2183,62 @@
       <c r="H11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K11" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L11" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M11" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4">
         <v>0</v>
       </c>
+      <c r="S11" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="T11" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>60</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>0.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4"/>
       <c r="AB11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:28">
       <c r="A12" s="3">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2246,39 +2250,45 @@
         <v>70</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4">
+        <v>35</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="L12" s="4">
-        <v>10</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>5</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="T12" s="4">
         <v>0</v>
       </c>
       <c r="U12" s="4">
+        <v>40</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="4">
         <v>0</v>
       </c>
       <c r="AA12" s="4"/>
@@ -2288,19 +2298,19 @@
     </row>
     <row r="13" customHeight="1" spans="1:28">
       <c r="A13" s="3">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2312,13 +2322,13 @@
         <v>70</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
       </c>
       <c r="L13" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M13" s="4">
         <v>35</v>
@@ -2327,52 +2337,57 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R13" s="4">
         <v>0</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
       </c>
       <c r="U13" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
       </c>
       <c r="Z13" s="4">
         <v>0</v>
       </c>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
       <c r="AB13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:28">
       <c r="A14" s="3">
-        <v>2003</v>
+        <v>10001</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="C14" s="3">
-        <v>2003</v>
+        <v>10001</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2384,128 +2399,51 @@
         <v>70</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4">
-        <v>10</v>
-      </c>
-      <c r="M14" s="4">
-        <v>35</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="Q14" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R14" s="4">
         <v>0</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="T14" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U14" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="Y14" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z14" s="4">
         <v>0</v>
       </c>
       <c r="AA14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:28">
-      <c r="A15" s="3">
-        <v>10001</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10001</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="U15" s="4">
-        <v>2</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>50</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="4">
         <v>0</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
+    <workbookView windowWidth="22920" windowHeight="7190" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -356,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -380,6 +367,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -393,6 +408,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,21 +455,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,28 +505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,13 +526,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,24 +592,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -599,18 +634,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -623,36 +646,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -671,19 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +719,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,21 +767,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,148 +823,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,52 +991,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1322,10 +1309,10 @@
   <sheetPr/>
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="topRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2464,7 +2451,7 @@
         <v>63</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -254,6 +254,9 @@
     <t>(0,0,1)</t>
   </si>
   <si>
+    <t>[0.45]</t>
+  </si>
+  <si>
     <t>龙牙猛击</t>
   </si>
   <si>
@@ -266,10 +269,10 @@
     <t>LongYaMengJi</t>
   </si>
   <si>
-    <t>(0,1.1,2.45)</t>
-  </si>
-  <si>
-    <t>[0.6]</t>
+    <t>(0,0.7,2)</t>
+  </si>
+  <si>
+    <t>[0.65]</t>
   </si>
   <si>
     <t>[1]</t>
@@ -290,64 +293,64 @@
     <t>(0,0,1.5)</t>
   </si>
   <si>
+    <t>[0.9]</t>
+  </si>
+  <si>
+    <t>风雷穿刺</t>
+  </si>
+  <si>
+    <t>Archerskill_06</t>
+  </si>
+  <si>
+    <t>FengLeiChuanCi</t>
+  </si>
+  <si>
+    <t>[0.25,0.2,0.3,0.3,0.3,0.3,0.4]</t>
+  </si>
+  <si>
+    <t>火灵咒</t>
+  </si>
+  <si>
+    <t>法师的基础法术，无消耗</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Intonate</t>
+  </si>
+  <si>
+    <t>Effects/Hits/Explosion</t>
+  </si>
+  <si>
+    <t>南明离火</t>
+  </si>
+  <si>
+    <t>对目标位置造成范围法术伤害</t>
+  </si>
+  <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>自定义技能</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>哥布林近战</t>
+  </si>
+  <si>
+    <t>哥布林近战物理攻击</t>
+  </si>
+  <si>
+    <t>(0,0.2,2)</t>
+  </si>
+  <si>
     <t>[0.5]</t>
-  </si>
-  <si>
-    <t>风雷穿刺</t>
-  </si>
-  <si>
-    <t>Archerskill_06</t>
-  </si>
-  <si>
-    <t>FengLeiChuanCi</t>
-  </si>
-  <si>
-    <t>(0,0.7,2)</t>
-  </si>
-  <si>
-    <t>[0.2,0.2,0.3,0.3,0.3,0.3,0.4]</t>
-  </si>
-  <si>
-    <t>火灵咒</t>
-  </si>
-  <si>
-    <t>法师的基础法术，无消耗</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Intonate</t>
-  </si>
-  <si>
-    <t>Effects/Hits/Explosion</t>
-  </si>
-  <si>
-    <t>南明离火</t>
-  </si>
-  <si>
-    <t>对目标位置造成范围法术伤害</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
-  </si>
-  <si>
-    <t>自定义技能</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>哥布林近战</t>
-  </si>
-  <si>
-    <t>哥布林近战物理攻击</t>
-  </si>
-  <si>
-    <t>(0,0.2,2)</t>
   </si>
 </sst>
 </file>
@@ -1320,9 +1323,9 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <selection pane="topRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1346,7 +1349,7 @@
     <col min="20" max="20" width="10.25" style="4" customWidth="1"/>
     <col min="21" max="21" width="9.625" style="4" customWidth="1"/>
     <col min="22" max="22" width="10.25" style="4" customWidth="1"/>
-    <col min="23" max="23" width="20.1166666666667" style="4" customWidth="1"/>
+    <col min="23" max="23" width="21.5333333333333" style="4" customWidth="1"/>
     <col min="24" max="24" width="9" style="4" customWidth="1"/>
     <col min="25" max="26" width="9" style="4"/>
     <col min="27" max="27" width="12" customWidth="1"/>
@@ -1835,7 +1838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:28">
+    <row r="7" customHeight="1" spans="1:29">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>74</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y7" s="4">
         <v>20</v>
@@ -1914,8 +1917,11 @@
       <c r="AB7" s="4">
         <v>0</v>
       </c>
+      <c r="AC7" s="4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:28">
+    <row r="8" customHeight="1" spans="1:29">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
@@ -1926,10 +1932,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1941,7 +1947,7 @@
         <v>70</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>63</v>
@@ -1959,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
@@ -1977,13 +1983,13 @@
         <v>3</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y8" s="4">
         <v>40</v>
@@ -1997,8 +2003,11 @@
       <c r="AB8" s="4">
         <v>0</v>
       </c>
+      <c r="AC8" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:28">
+    <row r="9" customHeight="1" spans="1:29">
       <c r="A9" s="3">
         <v>1003</v>
       </c>
@@ -2009,10 +2018,10 @@
         <v>1004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2024,13 +2033,13 @@
         <v>70</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K9" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -2042,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2060,10 +2069,10 @@
         <v>7</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y9" s="4">
         <v>60</v>
@@ -2076,6 +2085,9 @@
       </c>
       <c r="AB9" s="4">
         <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:29">
@@ -2089,10 +2101,10 @@
         <v>1005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2104,7 +2116,7 @@
         <v>70</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>63</v>
@@ -2122,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="4">
         <v>5</v>
@@ -2137,7 +2149,7 @@
         <v>3</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>92</v>
@@ -2432,7 +2444,7 @@
         <v>106</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="Y14" s="4">
         <v>50</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -254,7 +254,7 @@
     <t>(0,0,1)</t>
   </si>
   <si>
-    <t>[0.45]</t>
+    <t>[0.4]</t>
   </si>
   <si>
     <t>龙牙猛击</t>
@@ -272,9 +272,6 @@
     <t>(0,0.7,2)</t>
   </si>
   <si>
-    <t>[0.65]</t>
-  </si>
-  <si>
     <t>[1]</t>
   </si>
   <si>
@@ -293,7 +290,7 @@
     <t>(0,0,1.5)</t>
   </si>
   <si>
-    <t>[0.9]</t>
+    <t>[0.6]</t>
   </si>
   <si>
     <t>风雷穿刺</t>
@@ -305,7 +302,7 @@
     <t>FengLeiChuanCi</t>
   </si>
   <si>
-    <t>[0.25,0.2,0.3,0.3,0.3,0.3,0.4]</t>
+    <t>[0.2,0.2,0.3,0.3,0.3,0.3,0.4]</t>
   </si>
   <si>
     <t>火灵咒</t>
@@ -1325,7 +1322,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC10" sqref="AC10"/>
+      <selection pane="topRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1687,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="4">
         <v>0</v>
@@ -1758,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
@@ -1906,19 +1903,19 @@
         <v>75</v>
       </c>
       <c r="Y7" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="Z7" s="4">
         <v>0</v>
       </c>
       <c r="AA7" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:29">
@@ -1986,25 +1983,25 @@
         <v>80</v>
       </c>
       <c r="W8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="Y8" s="4">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="Z8" s="4">
         <v>0</v>
       </c>
       <c r="AA8" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="4">
         <v>0</v>
       </c>
       <c r="AC8" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:29">
@@ -2018,10 +2015,10 @@
         <v>1004</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2033,13 +2030,13 @@
         <v>70</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K9" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -2051,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2069,25 +2066,25 @@
         <v>7</v>
       </c>
       <c r="V9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="W9" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="Y9" s="4">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="Z9" s="4">
         <v>0</v>
       </c>
       <c r="AA9" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:29">
@@ -2101,10 +2098,10 @@
         <v>1005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2116,13 +2113,13 @@
         <v>70</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -2134,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="4">
         <v>5</v>
@@ -2152,16 +2149,16 @@
         <v>80</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="4">
         <v>0</v>
       </c>
       <c r="AA10" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="4">
         <v>0</v>
@@ -2181,10 +2178,10 @@
         <v>2001</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2196,7 +2193,7 @@
         <v>70</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" s="4">
         <v>1.5</v>
@@ -2211,19 +2208,19 @@
         <v>0.9</v>
       </c>
       <c r="O11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -2247,10 +2244,10 @@
         <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2262,7 +2259,7 @@
         <v>70</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -2277,10 +2274,10 @@
         <v>1.5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="4">
         <v>5</v>
@@ -2289,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T12" s="4">
         <v>0</v>
@@ -2298,7 +2295,7 @@
         <v>40</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z12" s="4">
         <v>0</v>
@@ -2319,10 +2316,10 @@
         <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2334,7 +2331,7 @@
         <v>70</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
@@ -2349,10 +2346,10 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="4">
         <v>10</v>
@@ -2370,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y13" s="4">
         <v>0</v>
@@ -2396,10 +2393,10 @@
         <v>10001</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2414,7 +2411,7 @@
         <v>63</v>
       </c>
       <c r="K14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -2426,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -2435,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="4">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="U14" s="4">
         <v>2</v>
       </c>
       <c r="V14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W14" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="Y14" s="4">
         <v>50</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>MissileUnitId</t>
   </si>
   <si>
-    <t>HitArt</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>投射物UnitId</t>
   </si>
   <si>
-    <t>击中效果</t>
-  </si>
-  <si>
     <t>持续时间</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>JianHengJi</t>
   </si>
   <si>
-    <t>Effects/Hits/Holy hit</t>
-  </si>
-  <si>
     <t>(0,0,1)</t>
   </si>
   <si>
@@ -315,9 +306,6 @@
   </si>
   <si>
     <t>Intonate</t>
-  </si>
-  <si>
-    <t>Effects/Hits/Explosion</t>
   </si>
   <si>
     <t>南明离火</t>
@@ -1317,12 +1305,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U8" sqref="U8"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1342,20 +1330,19 @@
     <col min="16" max="16" width="31.125" style="4" customWidth="1"/>
     <col min="17" max="17" width="10.875" style="4" customWidth="1"/>
     <col min="18" max="18" width="16.4666666666667" style="4" customWidth="1"/>
-    <col min="19" max="19" width="25.575" style="4" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="10.25" style="4" customWidth="1"/>
-    <col min="23" max="23" width="21.5333333333333" style="4" customWidth="1"/>
-    <col min="24" max="24" width="9" style="4" customWidth="1"/>
-    <col min="25" max="26" width="9" style="4"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="9" style="4"/>
-    <col min="29" max="29" width="13.45" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="4"/>
+    <col min="19" max="19" width="10.25" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="4" customWidth="1"/>
+    <col min="22" max="22" width="21.5333333333333" style="4" customWidth="1"/>
+    <col min="23" max="23" width="9" style="4" customWidth="1"/>
+    <col min="24" max="25" width="9" style="4"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="9" style="4"/>
+    <col min="28" max="28" width="13.45" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1440,189 +1427,180 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:28">
+      <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>31</v>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:29">
+    <row r="4" customHeight="1" spans="1:28">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -1633,67 +1611,67 @@
         <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="T4" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="U4" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>65</v>
+      <c r="X4" s="4">
+        <v>100</v>
       </c>
       <c r="Y4" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:29">
+    <row r="5" customHeight="1" spans="1:28">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -1704,7 +1682,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1713,58 +1691,58 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="T5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="U5" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>65</v>
+      <c r="X5" s="4">
+        <v>100</v>
       </c>
       <c r="Y5" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:29">
+    <row r="6" customHeight="1" spans="1:28">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -1775,7 +1753,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1784,58 +1762,58 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="T6" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="U6" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>65</v>
+      <c r="X6" s="4">
+        <v>100</v>
       </c>
       <c r="Y6" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AA6" s="4">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:29">
+    <row r="7" customHeight="1" spans="1:28">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
@@ -1846,10 +1824,10 @@
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1858,13 +1836,13 @@
         <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K7" s="4">
         <v>1.5</v>
@@ -1879,46 +1857,43 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="U7" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>75</v>
+      <c r="X7" s="4">
+        <v>200</v>
       </c>
       <c r="Y7" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:29">
+    <row r="8" customHeight="1" spans="1:28">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
@@ -1929,10 +1904,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1941,13 +1916,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K8" s="4">
         <v>3</v>
@@ -1962,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
@@ -1970,41 +1945,38 @@
       <c r="R8" s="4">
         <v>0</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>73</v>
+      <c r="S8" s="4">
+        <v>1</v>
       </c>
       <c r="T8" s="4">
-        <v>1</v>
-      </c>
-      <c r="U8" s="4">
         <v>3</v>
       </c>
+      <c r="U8" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="V8" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="X8" s="4">
+        <v>300</v>
       </c>
       <c r="Y8" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:29">
+    <row r="9" customHeight="1" spans="1:28">
       <c r="A9" s="3">
         <v>1003</v>
       </c>
@@ -2015,10 +1987,10 @@
         <v>1004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2027,13 +1999,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K9" s="4">
         <v>7</v>
@@ -2048,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2056,38 +2028,35 @@
       <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>73</v>
+      <c r="S9" s="4">
+        <v>2</v>
       </c>
       <c r="T9" s="4">
-        <v>2</v>
-      </c>
-      <c r="U9" s="4">
         <v>7</v>
       </c>
+      <c r="U9" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="V9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="X9" s="4">
+        <v>500</v>
       </c>
       <c r="Y9" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:29">
+    <row r="10" customHeight="1" spans="1:28">
       <c r="A10" s="3">
         <v>1004</v>
       </c>
@@ -2098,10 +2067,10 @@
         <v>1005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2110,13 +2079,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K10" s="4">
         <v>7</v>
@@ -2131,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="4">
         <v>5</v>
@@ -2139,35 +2108,35 @@
       <c r="R10" s="4">
         <v>0</v>
       </c>
+      <c r="S10" s="4">
+        <v>2.2</v>
+      </c>
       <c r="T10" s="4">
-        <v>2.2</v>
-      </c>
-      <c r="U10" s="4">
         <v>3</v>
       </c>
+      <c r="U10" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="V10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="X10" s="4">
+        <v>200</v>
       </c>
       <c r="Y10" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:28">
+    <row r="11" customHeight="1" spans="1:27">
       <c r="A11" s="3">
         <v>2001</v>
       </c>
@@ -2178,10 +2147,10 @@
         <v>2001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2190,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K11" s="4">
         <v>1.5</v>
@@ -2208,10 +2177,10 @@
         <v>0.9</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2219,21 +2188,18 @@
       <c r="R11" s="4">
         <v>0</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>96</v>
+      <c r="S11" s="4">
+        <v>0</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
       </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4">
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:28">
+    <row r="12" customHeight="1" spans="1:27">
       <c r="A12" s="3">
         <v>2002</v>
       </c>
@@ -2244,10 +2210,10 @@
         <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2256,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -2274,10 +2240,10 @@
         <v>1.5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="4">
         <v>5</v>
@@ -2285,27 +2251,24 @@
       <c r="R12" s="4">
         <v>0</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>96</v>
+      <c r="S12" s="4">
+        <v>0</v>
       </c>
       <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
         <v>40</v>
       </c>
-      <c r="W12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4">
+      <c r="V12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:28">
+    <row r="13" customHeight="1" spans="1:27">
       <c r="A13" s="3">
         <v>2003</v>
       </c>
@@ -2316,10 +2279,10 @@
         <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2328,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
@@ -2346,10 +2309,10 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="4">
         <v>10</v>
@@ -2357,17 +2320,17 @@
       <c r="R13" s="4">
         <v>0</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>73</v>
+      <c r="S13" s="4">
+        <v>0</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
       </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>99</v>
+      <c r="V13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
       </c>
       <c r="Y13" s="4">
         <v>0</v>
@@ -2378,11 +2341,8 @@
       <c r="AA13" s="4">
         <v>0</v>
       </c>
-      <c r="AB13" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" customHeight="1" spans="1:28">
+    <row r="14" customHeight="1" spans="1:27">
       <c r="A14" s="3">
         <v>10001</v>
       </c>
@@ -2393,10 +2353,10 @@
         <v>10001</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2405,10 +2365,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -2423,36 +2383,36 @@
         <v>0</v>
       </c>
       <c r="P14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="T14" s="4">
+        <v>2</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="U14" s="4">
-        <v>2</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>106</v>
+      <c r="X14" s="4">
+        <v>50</v>
       </c>
       <c r="Y14" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="4">
         <v>0</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -218,15 +218,21 @@
     <t>(0,1.2,2)</t>
   </si>
   <si>
-    <t>[0.3]</t>
+    <t>[0.15]</t>
   </si>
   <si>
     <t>剑士基础连招二</t>
   </si>
   <si>
+    <t>[0.25]</t>
+  </si>
+  <si>
     <t>剑士基础连招三</t>
   </si>
   <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
     <t>横剑击</t>
   </si>
   <si>
@@ -312,9 +318,6 @@
   </si>
   <si>
     <t>对目标位置造成范围法术伤害</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
   </si>
   <si>
     <t>自定义技能</t>
@@ -1308,9 +1311,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1626,7 +1629,7 @@
         <v>61</v>
       </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
@@ -1644,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="4">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="T4" s="4">
         <v>4.5</v>
@@ -1656,7 +1659,7 @@
         <v>63</v>
       </c>
       <c r="X4" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Y4" s="4">
         <v>0</v>
@@ -1697,7 +1700,7 @@
         <v>61</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -1715,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4">
         <v>4.5</v>
@@ -1724,10 +1727,10 @@
         <v>62</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X5" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Y5" s="4">
         <v>0</v>
@@ -1753,7 +1756,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1768,7 +1771,7 @@
         <v>61</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
@@ -1786,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="4">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="T6" s="4">
         <v>4.5</v>
@@ -1795,10 +1798,10 @@
         <v>62</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="X6" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Y6" s="4">
         <v>0</v>
@@ -1824,10 +1827,10 @@
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1836,10 +1839,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>61</v>
@@ -1857,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1872,13 +1875,13 @@
         <v>4.5</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X7" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
@@ -1904,10 +1907,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1916,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>61</v>
@@ -1937,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="4">
         <v>5</v>
@@ -1952,16 +1955,16 @@
         <v>3</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X8" s="4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Y8" s="4">
         <v>0</v>
@@ -1987,10 +1990,10 @@
         <v>1004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1999,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>61</v>
@@ -2020,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2035,13 +2038,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X9" s="4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
@@ -2067,10 +2070,10 @@
         <v>1005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2079,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>61</v>
@@ -2100,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="4">
         <v>5</v>
@@ -2115,13 +2118,13 @@
         <v>3</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X10" s="4">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Y10" s="4">
         <v>0</v>
@@ -2147,10 +2150,10 @@
         <v>2001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2159,10 +2162,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K11" s="4">
         <v>1.5</v>
@@ -2177,10 +2180,10 @@
         <v>0.9</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2210,22 +2213,22 @@
         <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -2240,10 +2243,10 @@
         <v>1.5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="4">
         <v>5</v>
@@ -2258,7 +2261,7 @@
         <v>40</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="Y12" s="4">
         <v>0</v>
@@ -2279,11 +2282,11 @@
         <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
@@ -2291,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
@@ -2309,10 +2312,10 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="4">
         <v>10</v>
@@ -2327,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="X13" s="4">
         <v>0</v>
@@ -2353,10 +2356,10 @@
         <v>10001</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2365,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>61</v>
@@ -2383,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -2398,10 +2401,10 @@
         <v>2</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X14" s="4">
         <v>50</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
+    <workbookView windowWidth="22920" windowHeight="7190" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -269,9 +256,6 @@
     <t>(0,0.7,2)</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
     <t>沉天陨击</t>
   </si>
   <si>
@@ -288,6 +272,9 @@
   </si>
   <si>
     <t>[0.6]</t>
+  </si>
+  <si>
+    <t>[2]</t>
   </si>
   <si>
     <t>风雷穿刺</t>
@@ -344,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -368,6 +355,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -381,6 +396,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,21 +443,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,28 +493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,13 +514,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,24 +580,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,18 +622,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -611,36 +634,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -659,19 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,6 +707,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,21 +755,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,148 +811,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,52 +979,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1311,9 +1298,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X11" sqref="X11"/>
+      <selection pane="topRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1960,9 +1947,7 @@
       <c r="V8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="W8" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="W8" s="4"/>
       <c r="X8" s="4">
         <v>600</v>
       </c>
@@ -1990,10 +1975,10 @@
         <v>1004</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2005,7 +1990,7 @@
         <v>70</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>61</v>
@@ -2023,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="4">
         <v>10</v>
@@ -2038,9 +2023,12 @@
         <v>7</v>
       </c>
       <c r="U9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="X9" s="4">
@@ -2073,7 +2061,7 @@
         <v>87</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190" tabRatio="173"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -331,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -355,34 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -396,14 +381,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,6 +420,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,7 +485,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,49 +527,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,97 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,21 +720,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +753,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,148 +824,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,52 +992,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1298,9 +1311,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X8" sqref="X8"/>
+      <selection pane="topRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1616,7 +1629,7 @@
         <v>61</v>
       </c>
       <c r="K4" s="4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
@@ -1687,7 +1700,7 @@
         <v>61</v>
       </c>
       <c r="K5" s="4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -1758,7 +1771,7 @@
         <v>61</v>
       </c>
       <c r="K6" s="4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
@@ -1947,7 +1960,6 @@
       <c r="V8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="W8" s="4"/>
       <c r="X8" s="4">
         <v>600</v>
       </c>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
+    <workbookView windowWidth="22920" windowHeight="7190" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -344,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -368,6 +355,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -381,6 +396,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,21 +443,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,28 +493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,13 +514,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,24 +580,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,18 +622,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -611,36 +634,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -659,19 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,6 +707,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,21 +755,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,148 +811,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,52 +979,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1311,9 +1298,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L14" sqref="L14"/>
+      <selection pane="topRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1881,13 +1868,13 @@
         <v>74</v>
       </c>
       <c r="X7" s="4">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
       </c>
       <c r="Z7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="4">
         <v>0</v>
@@ -1967,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="4">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AA8" s="4">
         <v>0</v>
@@ -2050,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="4">
         <v>0</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -1298,9 +1298,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Z10" sqref="Z10"/>
+      <selection pane="topRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AA8" s="4">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="4">
         <v>0</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190" tabRatio="173"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -331,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -355,34 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -396,14 +381,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,6 +420,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,7 +485,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,49 +527,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,97 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,21 +720,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +753,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,148 +824,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,52 +992,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1300,7 +1313,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="topRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2332,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:27">
+    <row r="14" customHeight="1" spans="1:28">
       <c r="A14" s="3">
         <v>10001</v>
       </c>
@@ -2404,6 +2417,9 @@
       </c>
       <c r="AA14" s="4">
         <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -1311,9 +1311,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="topRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -302,43 +302,34 @@
     <t>[0.2,0.2,0.3,0.3,0.3,0.3,0.4]</t>
   </si>
   <si>
-    <t>火灵咒</t>
-  </si>
-  <si>
-    <t>法师的基础法术，无消耗</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Intonate</t>
-  </si>
-  <si>
-    <t>南明离火</t>
-  </si>
-  <si>
-    <t>对目标位置造成范围法术伤害</t>
-  </si>
-  <si>
-    <t>自定义技能</t>
-  </si>
-  <si>
-    <t>Position</t>
+    <t>哥布林近战</t>
+  </si>
+  <si>
+    <t>哥布林近战物理攻击</t>
   </si>
   <si>
     <t>Attack</t>
   </si>
   <si>
-    <t>哥布林近战</t>
-  </si>
-  <si>
-    <t>哥布林近战物理攻击</t>
-  </si>
-  <si>
     <t>(0,0.2,2)</t>
   </si>
   <si>
     <t>[0.5]</t>
+  </si>
+  <si>
+    <t>骷髅小兵近战</t>
+  </si>
+  <si>
+    <t>骷髅骑士近战1</t>
+  </si>
+  <si>
+    <t>Attack1</t>
+  </si>
+  <si>
+    <t>骷髅骑士近战2</t>
+  </si>
+  <si>
+    <t>Attack2</t>
   </si>
 </sst>
 </file>
@@ -1311,9 +1302,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P14" sqref="P14"/>
+      <selection pane="topRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2139,15 +2130,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:27">
+    <row r="11" customHeight="1" spans="1:28">
       <c r="A11" s="3">
-        <v>2001</v>
+        <v>10001</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="C11" s="3">
-        <v>2001</v>
+        <v>10001</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>91</v>
@@ -2165,59 +2156,71 @@
         <v>70</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>2</v>
+      </c>
+      <c r="T11" s="4">
+        <v>2</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X11" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
         <v>10</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" customHeight="1" spans="1:27">
+    <row r="12" customHeight="1" spans="1:28">
       <c r="A12" s="3">
-        <v>2002</v>
+        <v>10002</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>1006</v>
       </c>
       <c r="C12" s="3">
-        <v>2002</v>
+        <v>10002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="4">
         <v>1</v>
       </c>
@@ -2228,65 +2231,71 @@
         <v>70</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="4">
-        <v>20</v>
-      </c>
-      <c r="M12" s="4">
-        <v>35</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>2</v>
+      </c>
+      <c r="T12" s="4">
+        <v>2</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>5</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>40</v>
-      </c>
       <c r="V12" s="4" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="X12" s="4">
+        <v>50</v>
       </c>
       <c r="Y12" s="4">
         <v>0</v>
       </c>
-      <c r="Z12" s="4"/>
+      <c r="Z12" s="4">
+        <v>1</v>
+      </c>
       <c r="AA12" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>10</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:27">
+    <row r="13" customHeight="1" spans="1:28">
       <c r="A13" s="3">
-        <v>2003</v>
+        <v>10003</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1007</v>
       </c>
       <c r="C13" s="3">
-        <v>2003</v>
+        <v>10003</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="4">
         <v>1</v>
       </c>
@@ -2297,70 +2306,71 @@
         <v>70</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="4">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>2</v>
+      </c>
+      <c r="T13" s="4">
+        <v>2</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X13" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
         <v>10</v>
-      </c>
-      <c r="M13" s="4">
-        <v>35</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>10</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:28">
       <c r="A14" s="3">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="B14" s="3">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C14" s="3">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="4">
         <v>1</v>
       </c>
@@ -2374,37 +2384,37 @@
         <v>61</v>
       </c>
       <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
         <v>2</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>1.7</v>
       </c>
       <c r="T14" s="4">
         <v>2</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="X14" s="4">
         <v>50</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -1302,9 +1302,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S15" sqref="S15"/>
+      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1650,7 +1650,7 @@
         <v>63</v>
       </c>
       <c r="X4" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>65</v>
       </c>
       <c r="X5" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="4">
         <v>0</v>
@@ -1792,13 +1792,13 @@
         <v>67</v>
       </c>
       <c r="X6" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="4">
         <v>0</v>
       </c>
       <c r="Z6" s="4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AA6" s="4">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>74</v>
       </c>
       <c r="X7" s="4">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
       </c>
       <c r="Z7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="4">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         <v>74</v>
       </c>
       <c r="X8" s="4">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="4">
         <v>0</v>
       </c>
       <c r="Z8" s="4">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="AA8" s="4">
         <v>0</v>
@@ -2035,13 +2035,13 @@
         <v>86</v>
       </c>
       <c r="X9" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA9" s="4">
         <v>0</v>
@@ -2115,13 +2115,13 @@
         <v>90</v>
       </c>
       <c r="X10" s="4">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="4">
         <v>0</v>
       </c>
       <c r="Z10" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="4">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>95</v>
       </c>
       <c r="X11" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="4">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>95</v>
       </c>
       <c r="X12" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="4">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>95</v>
       </c>
       <c r="X13" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="4">
         <v>0</v>
@@ -2417,13 +2417,13 @@
         <v>95</v>
       </c>
       <c r="X14" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="4">
         <v>0</v>
       </c>
       <c r="Z14" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AA14" s="4">
         <v>0</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
+    <workbookView windowWidth="20330" windowHeight="7190" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -335,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -359,6 +346,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -372,6 +387,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,21 +434,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,28 +484,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,13 +505,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,24 +571,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -578,18 +613,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,36 +625,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -650,19 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,6 +698,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,21 +746,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,148 +802,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,52 +970,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1302,9 +1289,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
+      <selection pane="topRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1662,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:28">
@@ -1733,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:28">
@@ -1804,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:28">
@@ -1884,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:28">
@@ -1964,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:28">
@@ -2127,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:28">

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -1288,10 +1288,10 @@
   <sheetPr/>
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="V1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB14" sqref="AB14"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2221,7 +2221,7 @@
         <v>61</v>
       </c>
       <c r="K12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>61</v>
       </c>
       <c r="K13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>61</v>
       </c>
       <c r="K14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>

--- a/SERVER/Common/Data/excel/SkillDefine.xlsx
+++ b/SERVER/Common/Data/excel/SkillDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="7190" tabRatio="173"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="173"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -298,7 +311,7 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>(0,0.2,2)</t>
+    <t>(0,0.7,0.7)</t>
   </si>
   <si>
     <t>[0.5]</t>
@@ -307,22 +320,31 @@
     <t>骷髅小兵近战</t>
   </si>
   <si>
+    <t>(0,0.6,1.4)</t>
+  </si>
+  <si>
     <t>骷髅骑士近战1</t>
   </si>
   <si>
     <t>Attack1</t>
   </si>
   <si>
+    <t>(0,0.7,0.6)</t>
+  </si>
+  <si>
     <t>骷髅骑士近战2</t>
   </si>
   <si>
     <t>Attack2</t>
+  </si>
+  <si>
+    <t>(0,0.7,1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -346,34 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -387,14 +381,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,6 +420,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,7 +485,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,49 +527,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,97 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,21 +720,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,6 +753,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,148 +824,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,52 +992,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1289,9 +1311,9 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+      <selection pane="topRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1607,7 +1629,7 @@
         <v>61</v>
       </c>
       <c r="K4" s="4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
@@ -1678,7 +1700,7 @@
         <v>61</v>
       </c>
       <c r="K5" s="4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -1749,7 +1771,7 @@
         <v>61</v>
       </c>
       <c r="K6" s="4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
@@ -2170,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="T11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>94</v>
@@ -2242,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12" s="4">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>95</v>
@@ -2280,7 +2302,7 @@
         <v>10003</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4">
@@ -2308,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="4">
         <v>0</v>
@@ -2317,13 +2339,13 @@
         <v>0</v>
       </c>
       <c r="S13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" s="4">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>95</v>
@@ -2355,7 +2377,7 @@
         <v>10004</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4">
@@ -2383,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -2392,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" s="4">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>95</v>
